--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021820(1).xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021820(1).xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3879,12 +3879,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5975,12 +5975,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6017,12 +6017,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6059,12 +6059,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6269,12 +6269,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6353,12 +6353,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6773,12 +6773,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6983,12 +6983,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7317,12 +7317,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7363,12 +7363,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7821,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7989,12 +7989,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8621,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9385,12 +9385,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10187,12 +10187,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11065,12 +11065,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11737,12 +11737,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11947,12 +11947,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13047,12 +13047,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13509,12 +13509,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13723,12 +13723,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13765,12 +13765,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14017,12 +14017,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15575,12 +15575,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15743,12 +15743,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16121,12 +16121,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
